--- a/CashFlow/IFF_cashflow.xlsx
+++ b/CashFlow/IFF_cashflow.xlsx
@@ -77,8 +77,8 @@
     <col min="2" max="2" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="5" max="5" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="6" max="6" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="5" max="5" bestFit="1" customWidth="1" width="14.3"/>
+    <col min="6" max="6" bestFit="1" customWidth="1" width="14.3"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="8" max="8" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="9" max="9" bestFit="1" customWidth="1" width="15.400000000000002"/>
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>4525000000.0</v>
+        <v>17924000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>4516000000.0</v>
+        <v>-20760000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>3352405000.0</v>
+        <v>-57832000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>2139579000.0</v>
+        <v>-37978000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1038860000.0</v>
+        <v>-62129000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-109076000.0</v>
@@ -990,19 +990,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>27923000.0</v>
+        <v>2068000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>116389000.0</v>
+        <v>2022000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>165446000.0</v>
+        <v>1525385000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>78564000.0</v>
+        <v>981403000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>61909000.0</v>
+        <v>477113000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>-30088000.0</v>
